--- a/results/mp/deberta/corona/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
@@ -118,10 +118,10 @@
     <t>ensure</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1427,25 +1427,25 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.6536796536796536</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L24">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="M24">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1453,25 +1453,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.6382978723404256</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L25">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="M25">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1635,25 +1635,25 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.5274390243902439</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L32">
         <v>173</v>
       </c>
       <c r="M32">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="10:17">
